--- a/Permission.xlsx
+++ b/Permission.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rohit\Documents\GitHub\FLASH-A\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\i\Documents\GitHub\FLASH-A\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10780" windowHeight="4020"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10780" windowHeight="4020" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>000</t>
   </si>
@@ -54,6 +55,18 @@
   </si>
   <si>
     <t>Function</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>SMS</t>
+  </si>
+  <si>
+    <t>Contacts</t>
+  </si>
+  <si>
+    <t>what's going on</t>
   </si>
 </sst>
 </file>
@@ -418,8 +431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -503,4 +516,110 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Permission.xlsx
+++ b/Permission.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>000</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>what's going on</t>
+  </si>
+  <si>
+    <t>Snackbar- permissions denied… core functionality. Settings button</t>
   </si>
 </sst>
 </file>
@@ -523,10 +526,13 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="4" width="50.453125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -552,6 +558,9 @@
       <c r="C2">
         <v>0</v>
       </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3">
@@ -562,6 +571,9 @@
       </c>
       <c r="C3">
         <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
